--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>-0.7015558851707349</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>-0.2783718414533731</v>
+        <v>1.245556224328537</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>1.247512323997491</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>-0.2226690179216506</v>
+        <v>2.82953744009995</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>0.3590181115727287</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-1.030732524904654</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-0.1873765424078244</v>
+        <v>2.957479223435766</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-1.324983933426882</v>
+        <v>0.5917823527752164</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.43917124526347</v>
+        <v>-1.985049937499994</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-0.01587181126743165</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>-0.05090530858298248</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>-0.1887859575859907</v>
+        <v>3.835144370775678</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>-0.3900454704678369</v>
+        <v>1.985742476411234</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>-1.525733162071541</v>
+        <v>7.819356632099961</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>-0.02256889165885845</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>-0.280463229596406</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>-0.6757980944263386</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>-0.2995848153489522</v>
+        <v>-0.7518797681958955</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>-0.2490335193639504</v>
+        <v>-1.590425574400001</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>0.09611428386597787</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>-0.1077084210717283</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>0.4006004000999486</v>
+        <v>-1.14533080410083</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>-0.2075757021743008</v>
+        <v>-0.5765930039052902</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>-0.2996751125873498</v>
+        <v>-1.590425574400001</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>-0.1827723404408288</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>0.04989996249373796</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>0</v>
+        <v>-0.9712385417624092</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.124712275190686</v>
+        <v>-0.07642926654481963</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-0.8228063897167348</v>
+        <v>-0.3994003998999851</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>-0.001350220946483294</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>-0.2754672193867047</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.6008487920565297</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>-0.255298189276465</v>
+        <v>0.9274109147535681</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>-0.1707111385982674</v>
+        <v>2.829537440099972</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>-0.075754880139145</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>0.07385387613489947</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>0.001214882944333695</v>
+        <v>-1.589980933184099</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>0.07418514192796266</v>
+        <v>-0.5259734324162268</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>0.1154799992219901</v>
+        <v>-1.194610791900008</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>-0.5761528471665445</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>-0.0956500825467832</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>-0.2481050815573704</v>
+        <v>0.4501721032283079</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>-0.07611406013281474</v>
+        <v>0.07456754038981384</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>-0.4077088505149873</v>
+        <v>0.4006004000999708</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>-0.2011999787958185</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>-0.2679944319537775</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>-0.3424919602869725</v>
+        <v>-0.1501751374934579</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>-0.191300579729714</v>
+        <v>-0.07666472728168339</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>0.1141845444420087</v>
+        <v>-1.590425574400012</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>0.1213692818849532</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>0.1599239221675486</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>0.237311763609438</v>
+        <v>1.204188598110267</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.1318946037958568</v>
+        <v>0.1986438914956645</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>0.1625577003677492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>0.1642080041170502</v>
+        <v>-0.2004754673795017</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>0.3241817950782488</v>
+        <v>-0.3994003998999962</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>0.0970330232288763</v>
+        <v>0.1743342151774741</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>-0.5466770281334576</v>
+        <v>1.483403742553846</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>0.1493219406571766</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>-1.081714961952107</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>-1.590425574400001</v>
+        <v>2.372078088364726</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>-0.9629592161347511</v>
+        <v>-0.7530239469328848</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>-1.274104623898353</v>
+        <v>-2.378486270400004</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.6506791097845133</v>
+        <v>-0.7283174404322912</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>0.2950958211103138</v>
+        <v>-2.378486270400004</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>-0.7407518902333265</v>
+        <v>-0.2044553505917923</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.881372672730163</v>
+        <v>0.8757395670492052</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>-0.4278219446121612</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>-1.006662988794982</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>-1.247608227842412</v>
+        <v>-2.378564786744741</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.2788721266884897</v>
+        <v>0.6687116611293176</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.205865523273731</v>
+        <v>2.42168652960002</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>0.3056679541520335</v>
+        <v>-0.03096525636255842</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-0.7608333212868024</v>
+        <v>1.205410808099971</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>0.3056679541520335</v>
+        <v>-0.4412356890029168</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-1.458903567332015</v>
+        <v>-1.287161643752965</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-1.026566979837418</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-1.167978069761499</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-2.100316115087164</v>
+        <v>-3.329887238705409</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.8905177160601796</v>
+        <v>-0.9187270897784594</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.7124653490690802</v>
+        <v>-2.100316115087164</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.388491535160907</v>
+        <v>-0.04074803603358879</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-7.050018265879832</v>
+        <v>-0.2354831990173722</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.388491535160907</v>
+        <v>-0.04976849661378902</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-1.940932910995052</v>
+        <v>-6.367504067266704</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>0.3179894933462268</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>-1.488759728399758</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>1.072043735370976</v>
+        <v>0.09136665742732752</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-1.657917050336966</v>
+        <v>0.7185676380534911</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.2089364391896886</v>
+        <v>1.072043735370976</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-1.678482969789596</v>
+        <v>1.296559640836992</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-0.06290856453315952</v>
+        <v>0.439921111559638</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-1.678482969789596</v>
+        <v>0.4784173072842179</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-1.231410215360129</v>
+        <v>-0.07349332085010429</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>0.463604920919658</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.7348984675969672</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>-0.7234699379142784</v>
+        <v>-1.086119702215593</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.6108712274484063</v>
+        <v>0.3516957773510798</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.1009004697362315</v>
+        <v>-0.7234699379142895</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.5999457276250508</v>
+        <v>0.8143067496459322</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.04203098606767597</v>
+        <v>-0.05551881767973388</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.5999457276250508</v>
+        <v>0.4279153732809959</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.1139131196980059</v>
+        <v>0.09327584436471525</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>0.621639092134818</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-0.06411339546530392</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>5.213214835375624E-05</v>
+        <v>-0.185520708596465</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.06871430377434207</v>
+        <v>-0.4267958602204081</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.02296559878420812</v>
+        <v>5.213214835375624E-05</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.05499271238530445</v>
+        <v>-1.077932696718564</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.1556336112028323</v>
+        <v>-0.02296885644381685</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.05499271238530445</v>
+        <v>-0.9378224616154895</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.1530558052845965</v>
+        <v>0.3335355268917262</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-0.6768900623516982</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.7912995089385699</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>1.899183358573908</v>
+        <v>0.9196327481985289</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.4155490690009644</v>
+        <v>2.173733407444822</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.01968817189477168</v>
+        <v>1.89918335857393</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.4335297397760618</v>
+        <v>0.4743170952486997</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.2524940080843141</v>
+        <v>-0.324019587165425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>1.136769786738334</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>0.2972123973886909</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.4412356890029168</v>
+        <v>-0.2555583584976984</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-1.287161643752965</v>
+        <v>1.129903841640179</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-3.329887238705409</v>
+        <v>-6.38174076944813</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.9187270897784594</v>
+        <v>1.988298574062308</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-2.100316115087164</v>
+        <v>5.718701441599983</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.04074803603358879</v>
+        <v>1.135350354669384</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.2354831990173722</v>
+        <v>5.718701441600005</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.04976849661378902</v>
+        <v>0.5230911540212935</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-6.367504067266704</v>
+        <v>0.8452751789703949</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>0.09136665742732752</v>
+        <v>-0.05914279202715589</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.7185676380534911</v>
+        <v>0.4667506795136056</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.072043735370976</v>
+        <v>0.4006004000999708</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.296559640836992</v>
+        <v>2.185449115957439</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.439921111559638</v>
+        <v>4.887093273600018</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>0.4784173072842179</v>
+        <v>0.5150411711202452</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.07349332085010429</v>
+        <v>0.4006004000999486</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-1.086119702215593</v>
+        <v>-0.0517903667920816</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.3516957773510798</v>
+        <v>1.07882517017055</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.7234699379142895</v>
+        <v>1.205410808099949</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.8143067496459322</v>
+        <v>0.8255040266054614</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.05551881767973388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.4279153732809959</v>
+        <v>0.5210077780289923</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.09327584436471525</v>
+        <v>1.305091503606493</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-0.185520708596465</v>
+        <v>-1.097580983230551</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.4267958602204081</v>
+        <v>-0.5760755550525576</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>5.213214835375624E-05</v>
+        <v>-0.3994003998999962</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-1.077932696718564</v>
+        <v>-1.073387923554092</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.02296885644381685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.9378224616154895</v>
+        <v>-0.8507045154764636</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.3335355268917262</v>
+        <v>1.483403742553846</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.9196327481985289</v>
+        <v>2.831373241727242</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.173733407444822</v>
+        <v>2.677970508051453</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.89918335857393</v>
+        <v>3.238605209599998</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.4743170952486997</v>
+        <v>-0.1808585347669145</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.324019587165425</v>
+        <v>-3.55169094390001</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>1.136769786738334</v>
+        <v>1.251846894998732</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.2972123973886909</v>
+        <v>1.786827323774465</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>-0.7015558851707349</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>1.245556224328537</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>1.247512323997491</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>2.82953744009995</v>
+        <v>2.829537440099972</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>0.3590181115727287</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>2.957479223435766</v>
+        <v>2.957479223435744</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +462,13 @@
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>0.5917823527752164</v>
+        <v>0.5917823527752386</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-1.985049937499994</v>
+        <v>-1.985049937500005</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +479,13 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-0.01587181126743165</v>
+        <v>-0.01587181126745385</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6">
-        <v>3.835144370775678</v>
+        <v>3.8351443707757</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -525,13 +513,13 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>-0.02256889165885845</v>
+        <v>-0.02256889165886955</v>
       </c>
       <c r="D8">
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>-0.6757980944263386</v>
+        <v>-0.6757980944263275</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,7 +530,7 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>-0.7518797681958955</v>
+        <v>-0.7518797681959066</v>
       </c>
       <c r="D9">
         <v>2012</v>
@@ -559,7 +547,7 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>0.09611428386597787</v>
+        <v>0.09611428386595566</v>
       </c>
       <c r="D10">
         <v>2012</v>
@@ -576,7 +564,7 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>-0.5765930039052902</v>
+        <v>-0.5765930039053124</v>
       </c>
       <c r="D11">
         <v>2013</v>
@@ -599,7 +587,7 @@
         <v>2013</v>
       </c>
       <c r="E12">
-        <v>-0.9712385417624092</v>
+        <v>-0.971238541762387</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +598,13 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-0.07642926654481963</v>
+        <v>-0.07642926654479743</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-0.3994003998999851</v>
+        <v>-0.3994003999000184</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +615,13 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>-0.001350220946483294</v>
+        <v>-0.001350220946472191</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>0.6008487920565297</v>
+        <v>0.6008487920565075</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +632,13 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>0.9274109147535681</v>
+        <v>0.9274109147535459</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>2.829537440099972</v>
+        <v>2.82953744009995</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +655,7 @@
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>-1.589980933184099</v>
+        <v>-1.58998093318411</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +672,7 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>-1.194610791900008</v>
+        <v>-1.194610791899997</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +683,13 @@
         <v>2015</v>
       </c>
       <c r="C18">
-        <v>-0.5761528471665445</v>
+        <v>-0.5761528471665334</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>0.4501721032283079</v>
+        <v>0.4501721032283301</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -735,7 +723,7 @@
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>-0.1501751374934579</v>
+        <v>-0.150175137493469</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,7 +734,7 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>-0.07666472728168339</v>
+        <v>-0.07666472728170559</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -780,7 +768,7 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.1986438914956645</v>
+        <v>0.1986438914956423</v>
       </c>
       <c r="D23">
         <v>2019</v>
@@ -803,7 +791,7 @@
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>-0.3994003998999962</v>
+        <v>-0.3994003999000073</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -837,7 +825,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>2.372078088364726</v>
+        <v>2.372078088364704</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +836,13 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>-0.7530239469328848</v>
+        <v>-0.7530239469328737</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>-2.378486270400004</v>
+        <v>-2.378486270399993</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,13 +853,13 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.7283174404322912</v>
+        <v>-0.7283174404323023</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-2.378486270400004</v>
+        <v>-2.378486270399993</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,7 +870,7 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>-0.2044553505917923</v>
+        <v>-0.2044553505917812</v>
       </c>
       <c r="D29">
         <v>2020</v>
@@ -899,13 +887,13 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>-0.4278219446121612</v>
+        <v>-0.4278219446121501</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>-2.378564786744741</v>
+        <v>-2.378564786744752</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -922,7 +910,7 @@
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.42168652960002</v>
+        <v>2.421686529599998</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +921,13 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-0.03096525636255842</v>
+        <v>-0.03096525636256953</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>1.205410808099971</v>
+        <v>1.205410808099949</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +938,7 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.2555583584976984</v>
+        <v>-0.2555583584977206</v>
       </c>
       <c r="D33">
         <v>2021</v>
@@ -967,7 +955,7 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-1.026566979837418</v>
+        <v>-1.026566979837429</v>
       </c>
       <c r="D34">
         <v>2021</v>
@@ -984,13 +972,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>1.988298574062308</v>
+        <v>1.98829857406233</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>5.718701441599983</v>
+        <v>5.718701441600027</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +989,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>1.135350354669384</v>
+        <v>1.135350354669407</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>5.718701441600005</v>
+        <v>5.718701441600027</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1058,7 +1046,7 @@
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.4006004000999708</v>
+        <v>0.4006004000999486</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,7 +1057,7 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>2.185449115957439</v>
+        <v>2.185449115957461</v>
       </c>
       <c r="D40">
         <v>2023</v>
@@ -1103,7 +1091,7 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>0.463604920919658</v>
+        <v>0.4636049209196802</v>
       </c>
       <c r="D42">
         <v>2023</v>
@@ -1154,7 +1142,7 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.5210077780289923</v>
+        <v>0.5210077780289701</v>
       </c>
       <c r="D45">
         <v>2024</v>
@@ -1171,13 +1159,13 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>0.621639092134818</v>
+        <v>0.6216390921348403</v>
       </c>
       <c r="D46">
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-1.097580983230551</v>
+        <v>-1.097580983230539</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,7 +1176,7 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.5760755550525576</v>
+        <v>-0.5760755550525465</v>
       </c>
       <c r="D47">
         <v>2025</v>
@@ -1222,7 +1210,7 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.8507045154764636</v>
+        <v>-0.8507045154764525</v>
       </c>
       <c r="D49">
         <v>2025</v>
@@ -1239,7 +1227,7 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>-0.6768900623516982</v>
+        <v>-0.6768900623516871</v>
       </c>
       <c r="D50">
         <v>2025</v>
@@ -1256,13 +1244,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.677970508051453</v>
+        <v>2.67797050805143</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>3.238605209599998</v>
+        <v>3.238605209600021</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1279,7 +1267,7 @@
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-3.55169094390001</v>
+        <v>-3.551690943900021</v>
       </c>
     </row>
     <row r="53" spans="1:5">

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>1.786827323774465</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>1.049317648994741</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>0.72625340902297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
